--- a/documentation/given-when-then.xlsx
+++ b/documentation/given-when-then.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dearo\work\da-vinci\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A6445-BE4D-4600-BEB4-3FB7E3CE7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F0314-8A12-4465-ADA1-27EBA02E9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="3390" windowWidth="24135" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="2175" windowWidth="22830" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>Felhasználói eset</t>
   </si>
@@ -133,6 +133,66 @@
   </si>
   <si>
     <t>A játék véget ér az utolsó életben maradt nyertes játékossal.</t>
+  </si>
+  <si>
+    <t>Kijelentkezés</t>
+  </si>
+  <si>
+    <t>Az alkalmazás meg van nyitva és a felhasználó be van jelentkezve</t>
+  </si>
+  <si>
+    <t>A felhasználó a kijelentkezés gombra kattint</t>
+  </si>
+  <si>
+    <t>A felhasználót kijelentkeztetjük az alkalmazásból és a bejelentkező képernyőre irányítjuk</t>
+  </si>
+  <si>
+    <t>Lépés a játékban</t>
+  </si>
+  <si>
+    <t>Egy játék folyamatban van és a játékos köre van éppen</t>
+  </si>
+  <si>
+    <t>A játékos tesz egy tippet valamelyik ellenfelének még nem felfedett kód elemére.</t>
+  </si>
+  <si>
+    <t>A szerver ellenőrzi a tipp helyességét, annak helyességének megfelelően a játék folytatódik.</t>
+  </si>
+  <si>
+    <t>Extra akció</t>
+  </si>
+  <si>
+    <t>A játékos egy helyes tippel felfedte ellenfelének egy kód elemét.</t>
+  </si>
+  <si>
+    <t>A játékos dönt, hogy kíván e új tippet végezni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A játékos tehet egy új tippet, vagy beilleszt egy felfedetlen elemet a kódsorába.</t>
+  </si>
+  <si>
+    <t>Helytelen tipp</t>
+  </si>
+  <si>
+    <t>A játékos köre van és tesz egy tippet</t>
+  </si>
+  <si>
+    <t>A játékos tippje helytelen</t>
+  </si>
+  <si>
+    <t>A játékosnak fel kell húznia egy felfedett elemet és be kell illesztenie azt a kódsorába</t>
+  </si>
+  <si>
+    <t>A játékos dönt, hogy kíván e új tippet végezni, vagy beilleszt egy felfedetlen elemet a kódsorába.</t>
+  </si>
+  <si>
+    <t>A választott akciónak megfelelően folytatódik tovább a játék</t>
+  </si>
+  <si>
+    <t>A játékosnak fel kell húznia egy elemet és be kell illesztenie azt a kódsorába felfedve.</t>
+  </si>
+  <si>
+    <t>A játék véget ér az utolsó életben maradt játékossal nyertesként.</t>
   </si>
 </sst>
 </file>
@@ -180,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -375,53 +435,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -429,6 +504,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -709,302 +834,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H13:I14"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="83.28515625" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>5</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>24</v>
+      <c r="B17" s="19"/>
+      <c r="C17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
+      <c r="B18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>27</v>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>28</v>
+      <c r="B20" s="17"/>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="12">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
+      <c r="B21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>31</v>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>32</v>
+      <c r="B23" s="17"/>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>34</v>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>9</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>10</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>12</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>4</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>5</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>6</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>7</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>8</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>9</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>10</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>11</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>12</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="43">
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
@@ -1021,7 +1651,6 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/given-when-then.xlsx
+++ b/documentation/given-when-then.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dearo\work\da-vinci\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F0314-8A12-4465-ADA1-27EBA02E9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D26AB8-02F2-4244-A82E-06DBD5A2A292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="2175" windowWidth="22830" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Felhasználói eset</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Már csak egy játékos van életben</t>
   </si>
   <si>
-    <t>A játék véget ér az utolsó életben maradt nyertes játékossal.</t>
-  </si>
-  <si>
     <t>Kijelentkezés</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
     <t>A játékos egy helyes tippel felfedte ellenfelének egy kód elemét.</t>
   </si>
   <si>
-    <t>A játékos dönt, hogy kíván e új tippet végezni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A játékos tehet egy új tippet, vagy beilleszt egy felfedetlen elemet a kódsorába.</t>
-  </si>
-  <si>
     <t>Helytelen tipp</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>A játékos tippje helytelen</t>
   </si>
   <si>
-    <t>A játékosnak fel kell húznia egy felfedett elemet és be kell illesztenie azt a kódsorába</t>
-  </si>
-  <si>
     <t>A játékos dönt, hogy kíván e új tippet végezni, vagy beilleszt egy felfedetlen elemet a kódsorába.</t>
   </si>
   <si>
@@ -193,6 +181,54 @@
   </si>
   <si>
     <t>A játék véget ér az utolsó életben maradt játékossal nyertesként.</t>
+  </si>
+  <si>
+    <t>Esemény</t>
+  </si>
+  <si>
+    <t>Várt eredmény</t>
+  </si>
+  <si>
+    <t>Weboldal első elérése</t>
+  </si>
+  <si>
+    <t>Betölt a weboldal, látjuk a bejelentkező felületet ahol megadhatjuk a felhasználó nevünket, és a felület alatt a jelenleg futó asztalok listáját látjuk, vagy a "There are no open tables at the moment" feliratot.</t>
+  </si>
+  <si>
+    <t>Bejelentkezéskor jobb felső sarokban egy zöld notifikáció jelenik meg jelezve a sikeres bejelentkezést. Ezután a megjelenő felületen bal felső sarokban a fejlécen köszöntő üzenetet találunk a nevünkel, jobb felső sarokban a kijelentkezés gombot. A fejléc alatt jelennek meg az éppen futó táblák sorban, amennyiben ilyen nincs akkor a "There are no open tables at the moment." feliratot látjuk, ezen kívül még az új asztal létrehozásához látunk egy gombot.</t>
+  </si>
+  <si>
+    <t>Kijelentkezéskor egy piros notifikáció jelenik meg jelezve a sikeres kijelentkezést. Ezután a weboldal első elérésekor részletezett felületet kell látnunk.</t>
+  </si>
+  <si>
+    <t>Új asztal létrehozásánál ugyanazt a felületet kell látnunk mint amit csatlakozáskor látunk azon különbségekkel, hogy képesek vagyunk megfelelő létszámnál elindítani a játékot és képesek vagyunk gépi ellenfelet hozzáadni az asztalhoz. Ezen kívül új asztal létrehozásánál minden más bejelentkezett felhasználónak is a megfelelő felületeken látniuk kell az új asztalt.</t>
+  </si>
+  <si>
+    <t>A fejlécen továbbra is látjuk az üdvözlő üzenetet a nevünkel és a kijelentkezés gombot. A felületen ezen kívül látnunk  kell az aktuálisan csatlakozott játékosokat az asztalnál és a hozzá adott gépi ellenfeleket. A felületen továbbá látnunk kell az elérhető játékokat, azok nevét, és a játékhoz szükséges információkat (játékos létszám például). A játékos listában a nevünk mellett találjuk meg az asztal elhagyása gombot. Ezen kívül az asztalhoz csatlakozáskor minden más bejelentkezett játékosnak is a megfelelő felületeken látniuk kell az új állapotot.</t>
+  </si>
+  <si>
+    <t>Gépi ellenfél hozzáadásakor minden az asztalhoz csatlakozott felhasználónál megjelenik a gépi ellenfél a csatlakozott játékosok listájában.</t>
+  </si>
+  <si>
+    <t>Átváltunk a játék nézetre, betőltődik a játék. A fejlécben marad az üdvözlő felirat és kilépés gomb. A játék megjeleníti a játékosok és saját kezünket és elkezdi a játékot annak kezdő lépéseivel. Jobb oldalt a játék üzeneteiben kell tudnunk követni a végre hajtott lépéseket.</t>
+  </si>
+  <si>
+    <t>Da Vinci játék kezdése</t>
+  </si>
+  <si>
+    <t>Játékos számtól függően a játéknak fel kell ajánlania 3 vagy 4 kezdő elemhez a szín választást.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az ellenfelek lapjaira rá hover-elve meg kell jelennie a gomboknak  a számok felett és alatt amivel tippet lehet beállítani és véglegesíteni. Helyes tipp esetén extra akciót kell választani, helytelen esetén színt kell választani (de csak akkor ha van még több színből kód elem az osztónál). </t>
+  </si>
+  <si>
+    <t>Megjelenik egy felugró ablak a "Please pick a color for a PUBLIC piece." felirattal és színt kell választanunk egy publikus elemmel. (de csak akkor ha van még több színből kód elem az osztónál). Ezután a húzott elem bekerül a megfelelő helyére a kódsorunkba és publikus jelzéssel van el látva. (háromszögben felkiától jel)</t>
+  </si>
+  <si>
+    <t>Automatikusan megjelenik egy felugró ablak a "Congratuliations! You won!" vagy {Nyertes játékos neve} won the game. Thanks for playing! Good luck next time!" felirattal és egy "Okay" gombal. A gombra kattintva automatikusan az asztalok listázása nézetre ugrunk vissza.</t>
+  </si>
+  <si>
+    <t>Extra akció csak akkor jár ha tettünk egy sikeres tippet. Extra akció esetén a felületen egy felugró ablakban kell tudnunk gombok segítségével választani az extra akciók közül. ("Continue guessing" vagy "Take a piece"). Választás után a választásnak megfelelő akciónak kell következnie.</t>
   </si>
 </sst>
 </file>
@@ -240,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -483,11 +519,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -498,62 +649,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -834,16 +1064,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D75"/>
+  <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -851,16 +1084,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -871,8 +1104,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -881,8 +1114,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
@@ -891,10 +1124,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -905,8 +1138,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -915,8 +1148,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
@@ -925,44 +1158,44 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>36</v>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -973,8 +1206,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
@@ -983,8 +1216,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
@@ -993,10 +1226,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1007,8 +1240,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1250,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1027,10 +1260,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>6</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1041,8 +1274,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1284,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1061,10 +1294,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1075,8 +1308,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1318,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
@@ -1095,10 +1328,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>8</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1109,8 +1342,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1352,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
@@ -1129,112 +1362,112 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>9</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>40</v>
+      <c r="B27" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>10</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>10</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>52</v>
+      <c r="D31" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>11</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>48</v>
+      <c r="B33" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>12</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1244,9 +1477,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,387 +1487,493 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" s="37" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="15"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="16"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:11" s="37" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="14">
+        <v>2</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="1:11" s="37" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="15"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" s="37" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="H50" s="14">
+        <v>3</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="H53" s="14">
         <v>4</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="I53" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:11" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="36"/>
+    </row>
+    <row r="56" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="H56" s="14">
+        <v>5</v>
+      </c>
+      <c r="I56" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>5</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="J56" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="44"/>
+    </row>
+    <row r="57" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="45"/>
+    </row>
+    <row r="58" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="H59" s="14">
+        <v>6</v>
+      </c>
+      <c r="I59" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
-        <v>6</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="J59" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="32"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="H62" s="14">
+        <v>7</v>
+      </c>
+      <c r="I62" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>7</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="J62" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
+    </row>
+    <row r="64" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="36"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="H65" s="14">
         <v>8</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="I65" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" s="39"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="41"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="43"/>
+    </row>
+    <row r="68" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="H68" s="14">
+        <v>9</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="30"/>
+      <c r="H71" s="14">
+        <v>10</v>
+      </c>
+      <c r="I71" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="32"/>
+    </row>
+    <row r="72" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="H74" s="14">
+        <v>11</v>
+      </c>
+      <c r="I74" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74" s="32"/>
+    </row>
+    <row r="75" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="16"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="14">
+        <v>12</v>
+      </c>
+      <c r="I77" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <v>9</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>10</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>11</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
-        <v>12</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="J77" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="15"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="15"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
+  <mergeCells count="62">
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J44:K46"/>
+    <mergeCell ref="J47:K49"/>
+    <mergeCell ref="J50:K52"/>
+    <mergeCell ref="J53:K55"/>
+    <mergeCell ref="J56:K58"/>
+    <mergeCell ref="J59:K61"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="J65:K67"/>
+    <mergeCell ref="J68:K70"/>
+    <mergeCell ref="J71:K73"/>
+    <mergeCell ref="J74:K76"/>
+    <mergeCell ref="J77:K79"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
@@ -1651,6 +1990,15 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
